--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fintegral365-my.sharepoint.com/personal/oguz_oztekin_fintegral_com_tr/Documents/Masaüstü/Future Jobs/Future-Jobs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23EDE3F24593CAB2A9D2F02CB12A22897879C8C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3495B274-E587-46E5-BF45-B7F0BF4FF28D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$196</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="590">
   <si>
     <t>country_code</t>
   </si>
@@ -1198,9 +1207,6 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Palestine mi acaba</t>
-  </si>
-  <si>
     <t>https://widgets.weforum.org/future-of-jobs-2025/scorecards/score-card/economy/ABW.json</t>
   </si>
   <si>
@@ -1781,13 +1787,19 @@
   </si>
   <si>
     <t>https://widgets.weforum.org/future-of-jobs-2025/scorecards/score-card/economy/ZWE.json</t>
+  </si>
+  <si>
+    <t>Yok</t>
+  </si>
+  <si>
+    <t>Var</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1863,13 +1875,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1907,7 +1927,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1941,6 +1961,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1975,9 +1996,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2150,14 +2172,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B178" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2177,7 +2206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>9</v>
       </c>
@@ -2190,11 +2219,14 @@
       <c r="D2" t="s">
         <v>200</v>
       </c>
+      <c r="F2" t="s">
+        <v>588</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2207,11 +2239,14 @@
       <c r="D3" t="s">
         <v>201</v>
       </c>
+      <c r="F3" t="s">
+        <v>588</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -2224,11 +2259,14 @@
       <c r="D4" t="s">
         <v>202</v>
       </c>
+      <c r="F4" t="s">
+        <v>588</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2241,11 +2279,14 @@
       <c r="D5" t="s">
         <v>203</v>
       </c>
+      <c r="F5" t="s">
+        <v>588</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2258,11 +2299,14 @@
       <c r="D6" t="s">
         <v>204</v>
       </c>
+      <c r="F6" t="s">
+        <v>588</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>185</v>
       </c>
@@ -2275,11 +2319,14 @@
       <c r="D7" t="s">
         <v>205</v>
       </c>
+      <c r="F7" t="s">
+        <v>589</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2292,11 +2339,14 @@
       <c r="D8" t="s">
         <v>206</v>
       </c>
+      <c r="F8" t="s">
+        <v>589</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2309,11 +2359,14 @@
       <c r="D9" t="s">
         <v>207</v>
       </c>
+      <c r="F9" t="s">
+        <v>588</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2326,11 +2379,14 @@
       <c r="D10" t="s">
         <v>208</v>
       </c>
+      <c r="F10" t="s">
+        <v>588</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2343,11 +2399,14 @@
       <c r="D11" t="s">
         <v>209</v>
       </c>
+      <c r="F11" t="s">
+        <v>589</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2360,11 +2419,14 @@
       <c r="D12" t="s">
         <v>210</v>
       </c>
+      <c r="F12" t="s">
+        <v>589</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2377,11 +2439,14 @@
       <c r="D13" t="s">
         <v>211</v>
       </c>
+      <c r="F13" t="s">
+        <v>588</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>29</v>
       </c>
@@ -2394,11 +2459,14 @@
       <c r="D14" t="s">
         <v>212</v>
       </c>
+      <c r="F14" t="s">
+        <v>588</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>18</v>
       </c>
@@ -2411,11 +2479,14 @@
       <c r="D15" t="s">
         <v>213</v>
       </c>
+      <c r="F15" t="s">
+        <v>589</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>20</v>
       </c>
@@ -2428,11 +2499,14 @@
       <c r="D16" t="s">
         <v>214</v>
       </c>
+      <c r="F16" t="s">
+        <v>588</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>28</v>
       </c>
@@ -2445,11 +2519,14 @@
       <c r="D17" t="s">
         <v>215</v>
       </c>
+      <c r="F17" t="s">
+        <v>588</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2462,11 +2539,14 @@
       <c r="D18" t="s">
         <v>216</v>
       </c>
+      <c r="F18" t="s">
+        <v>588</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>27</v>
       </c>
@@ -2479,11 +2559,14 @@
       <c r="D19" t="s">
         <v>217</v>
       </c>
+      <c r="F19" t="s">
+        <v>588</v>
+      </c>
       <c r="G19" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -2496,11 +2579,14 @@
       <c r="D20" t="s">
         <v>218</v>
       </c>
+      <c r="F20" t="s">
+        <v>589</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>13</v>
       </c>
@@ -2513,11 +2599,14 @@
       <c r="D21" t="s">
         <v>219</v>
       </c>
+      <c r="F21" t="s">
+        <v>588</v>
+      </c>
       <c r="G21" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -2530,11 +2619,14 @@
       <c r="D22" t="s">
         <v>220</v>
       </c>
+      <c r="F22" t="s">
+        <v>588</v>
+      </c>
       <c r="G22" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -2547,11 +2639,14 @@
       <c r="D23" t="s">
         <v>221</v>
       </c>
+      <c r="F23" t="s">
+        <v>588</v>
+      </c>
       <c r="G23" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -2564,11 +2659,14 @@
       <c r="D24" t="s">
         <v>222</v>
       </c>
+      <c r="F24" t="s">
+        <v>588</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2581,11 +2679,14 @@
       <c r="D25" t="s">
         <v>223</v>
       </c>
+      <c r="F25" t="s">
+        <v>588</v>
+      </c>
       <c r="G25" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2598,11 +2699,14 @@
       <c r="D26" t="s">
         <v>224</v>
       </c>
+      <c r="F26" t="s">
+        <v>589</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>16</v>
       </c>
@@ -2615,11 +2719,14 @@
       <c r="D27" t="s">
         <v>225</v>
       </c>
+      <c r="F27" t="s">
+        <v>588</v>
+      </c>
       <c r="G27" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2632,11 +2739,14 @@
       <c r="D28" t="s">
         <v>226</v>
       </c>
+      <c r="F28" t="s">
+        <v>588</v>
+      </c>
       <c r="G28" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>21</v>
       </c>
@@ -2649,11 +2759,14 @@
       <c r="D29" t="s">
         <v>227</v>
       </c>
+      <c r="F29" t="s">
+        <v>588</v>
+      </c>
       <c r="G29" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>24</v>
       </c>
@@ -2666,11 +2779,14 @@
       <c r="D30" t="s">
         <v>228</v>
       </c>
+      <c r="F30" t="s">
+        <v>588</v>
+      </c>
       <c r="G30" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>33</v>
       </c>
@@ -2683,11 +2799,14 @@
       <c r="D31" t="s">
         <v>229</v>
       </c>
+      <c r="F31" t="s">
+        <v>589</v>
+      </c>
       <c r="G31" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>168</v>
       </c>
@@ -2700,11 +2819,14 @@
       <c r="D32" t="s">
         <v>230</v>
       </c>
+      <c r="F32" t="s">
+        <v>589</v>
+      </c>
       <c r="G32" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -2717,11 +2839,14 @@
       <c r="D33" t="s">
         <v>231</v>
       </c>
+      <c r="F33" t="s">
+        <v>588</v>
+      </c>
       <c r="G33" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -2734,11 +2859,14 @@
       <c r="D34" t="s">
         <v>232</v>
       </c>
+      <c r="F34" t="s">
+        <v>589</v>
+      </c>
       <c r="G34" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>46</v>
       </c>
@@ -2751,11 +2879,14 @@
       <c r="D35" t="s">
         <v>233</v>
       </c>
+      <c r="F35" t="s">
+        <v>588</v>
+      </c>
       <c r="G35" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -2768,11 +2899,14 @@
       <c r="D36" t="s">
         <v>234</v>
       </c>
+      <c r="F36" t="s">
+        <v>588</v>
+      </c>
       <c r="G36" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40</v>
       </c>
@@ -2785,11 +2919,14 @@
       <c r="D37" t="s">
         <v>235</v>
       </c>
+      <c r="F37" t="s">
+        <v>588</v>
+      </c>
       <c r="G37" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>41</v>
       </c>
@@ -2802,11 +2939,14 @@
       <c r="D38" t="s">
         <v>236</v>
       </c>
+      <c r="F38" t="s">
+        <v>588</v>
+      </c>
       <c r="G38" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2819,11 +2959,14 @@
       <c r="D39" t="s">
         <v>237</v>
       </c>
+      <c r="F39" t="s">
+        <v>589</v>
+      </c>
       <c r="G39" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2836,11 +2979,14 @@
       <c r="D40" t="s">
         <v>238</v>
       </c>
+      <c r="F40" t="s">
+        <v>588</v>
+      </c>
       <c r="G40" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>30</v>
       </c>
@@ -2853,11 +2999,14 @@
       <c r="D41" t="s">
         <v>239</v>
       </c>
+      <c r="F41" t="s">
+        <v>588</v>
+      </c>
       <c r="G41" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -2870,11 +3019,14 @@
       <c r="D42" t="s">
         <v>240</v>
       </c>
+      <c r="F42" t="s">
+        <v>588</v>
+      </c>
       <c r="G42" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44</v>
       </c>
@@ -2887,11 +3039,14 @@
       <c r="D43" t="s">
         <v>241</v>
       </c>
+      <c r="F43" t="s">
+        <v>588</v>
+      </c>
       <c r="G43" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45</v>
       </c>
@@ -2904,11 +3059,14 @@
       <c r="D44" t="s">
         <v>242</v>
       </c>
+      <c r="F44" t="s">
+        <v>589</v>
+      </c>
       <c r="G44" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>65</v>
       </c>
@@ -2921,11 +3079,14 @@
       <c r="D45" t="s">
         <v>243</v>
       </c>
+      <c r="F45" t="s">
+        <v>589</v>
+      </c>
       <c r="G45" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>48</v>
       </c>
@@ -2938,11 +3099,14 @@
       <c r="D46" t="s">
         <v>244</v>
       </c>
+      <c r="F46" t="s">
+        <v>588</v>
+      </c>
       <c r="G46" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>49</v>
       </c>
@@ -2955,11 +3119,14 @@
       <c r="D47" t="s">
         <v>245</v>
       </c>
+      <c r="F47" t="s">
+        <v>588</v>
+      </c>
       <c r="G47" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2972,11 +3139,14 @@
       <c r="D48" t="s">
         <v>246</v>
       </c>
+      <c r="F48" t="s">
+        <v>589</v>
+      </c>
       <c r="G48" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>50</v>
       </c>
@@ -2989,11 +3159,14 @@
       <c r="D49" t="s">
         <v>247</v>
       </c>
+      <c r="F49" t="s">
+        <v>588</v>
+      </c>
       <c r="G49" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>3</v>
       </c>
@@ -3006,11 +3179,14 @@
       <c r="D50" t="s">
         <v>248</v>
       </c>
+      <c r="F50" t="s">
+        <v>588</v>
+      </c>
       <c r="G50" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -3023,11 +3199,14 @@
       <c r="D51" t="s">
         <v>249</v>
       </c>
+      <c r="F51" t="s">
+        <v>588</v>
+      </c>
       <c r="G51" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -3040,11 +3219,14 @@
       <c r="D52" t="s">
         <v>250</v>
       </c>
+      <c r="F52" t="s">
+        <v>589</v>
+      </c>
       <c r="G52" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>55</v>
       </c>
@@ -3057,11 +3239,14 @@
       <c r="D53" t="s">
         <v>251</v>
       </c>
+      <c r="F53" t="s">
+        <v>588</v>
+      </c>
       <c r="G53" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>163</v>
       </c>
@@ -3074,11 +3259,14 @@
       <c r="D54" t="s">
         <v>252</v>
       </c>
+      <c r="F54" t="s">
+        <v>589</v>
+      </c>
       <c r="G54" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -3091,11 +3279,14 @@
       <c r="D55" t="s">
         <v>253</v>
       </c>
+      <c r="F55" t="s">
+        <v>589</v>
+      </c>
       <c r="G55" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>58</v>
       </c>
@@ -3108,11 +3299,14 @@
       <c r="D56" t="s">
         <v>254</v>
       </c>
+      <c r="F56" t="s">
+        <v>588</v>
+      </c>
       <c r="G56" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>60</v>
       </c>
@@ -3125,11 +3319,14 @@
       <c r="D57" t="s">
         <v>255</v>
       </c>
+      <c r="F57" t="s">
+        <v>588</v>
+      </c>
       <c r="G57" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -3142,11 +3339,14 @@
       <c r="D58" t="s">
         <v>256</v>
       </c>
+      <c r="F58" t="s">
+        <v>588</v>
+      </c>
       <c r="G58" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>61</v>
       </c>
@@ -3159,11 +3359,14 @@
       <c r="D59" t="s">
         <v>257</v>
       </c>
+      <c r="F59" t="s">
+        <v>589</v>
+      </c>
       <c r="G59" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>114</v>
       </c>
@@ -3176,11 +3379,14 @@
       <c r="D60" t="s">
         <v>258</v>
       </c>
+      <c r="F60" t="s">
+        <v>588</v>
+      </c>
       <c r="G60" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>62</v>
       </c>
@@ -3193,11 +3399,14 @@
       <c r="D61" t="s">
         <v>259</v>
       </c>
+      <c r="F61" t="s">
+        <v>588</v>
+      </c>
       <c r="G61" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>186</v>
       </c>
@@ -3210,11 +3419,14 @@
       <c r="D62" t="s">
         <v>260</v>
       </c>
+      <c r="F62" t="s">
+        <v>589</v>
+      </c>
       <c r="G62" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>64</v>
       </c>
@@ -3227,11 +3439,14 @@
       <c r="D63" t="s">
         <v>261</v>
       </c>
+      <c r="F63" t="s">
+        <v>588</v>
+      </c>
       <c r="G63" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>66</v>
       </c>
@@ -3244,11 +3459,14 @@
       <c r="D64" t="s">
         <v>262</v>
       </c>
+      <c r="F64" t="s">
+        <v>588</v>
+      </c>
       <c r="G64" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>70</v>
       </c>
@@ -3261,11 +3479,14 @@
       <c r="D65" t="s">
         <v>263</v>
       </c>
+      <c r="F65" t="s">
+        <v>588</v>
+      </c>
       <c r="G65" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -3278,11 +3499,14 @@
       <c r="D66" t="s">
         <v>264</v>
       </c>
+      <c r="F66" t="s">
+        <v>588</v>
+      </c>
       <c r="G66" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>71</v>
       </c>
@@ -3295,11 +3519,14 @@
       <c r="D67" t="s">
         <v>265</v>
       </c>
+      <c r="F67" t="s">
+        <v>588</v>
+      </c>
       <c r="G67" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>54</v>
       </c>
@@ -3312,11 +3539,14 @@
       <c r="D68" t="s">
         <v>266</v>
       </c>
+      <c r="F68" t="s">
+        <v>588</v>
+      </c>
       <c r="G68" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3329,11 +3559,14 @@
       <c r="D69" t="s">
         <v>267</v>
       </c>
+      <c r="F69" t="s">
+        <v>589</v>
+      </c>
       <c r="G69" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3346,11 +3579,14 @@
       <c r="D70" t="s">
         <v>268</v>
       </c>
+      <c r="F70" t="s">
+        <v>588</v>
+      </c>
       <c r="G70" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3363,11 +3599,14 @@
       <c r="D71" t="s">
         <v>269</v>
       </c>
+      <c r="F71" t="s">
+        <v>588</v>
+      </c>
       <c r="G71" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -3380,11 +3619,14 @@
       <c r="D72" t="s">
         <v>270</v>
       </c>
+      <c r="F72" t="s">
+        <v>588</v>
+      </c>
       <c r="G72" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>75</v>
       </c>
@@ -3397,11 +3639,14 @@
       <c r="D73" t="s">
         <v>271</v>
       </c>
+      <c r="F73" t="s">
+        <v>589</v>
+      </c>
       <c r="G73" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -3414,11 +3659,14 @@
       <c r="D74" t="s">
         <v>272</v>
       </c>
+      <c r="F74" t="s">
+        <v>588</v>
+      </c>
       <c r="G74" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43</v>
       </c>
@@ -3431,11 +3679,14 @@
       <c r="D75" t="s">
         <v>273</v>
       </c>
+      <c r="F75" t="s">
+        <v>588</v>
+      </c>
       <c r="G75" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>73</v>
       </c>
@@ -3448,11 +3699,14 @@
       <c r="D76" t="s">
         <v>274</v>
       </c>
+      <c r="F76" t="s">
+        <v>588</v>
+      </c>
       <c r="G76" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3465,11 +3719,14 @@
       <c r="D77" t="s">
         <v>275</v>
       </c>
+      <c r="F77" t="s">
+        <v>589</v>
+      </c>
       <c r="G77" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>79</v>
       </c>
@@ -3482,11 +3739,14 @@
       <c r="D78" t="s">
         <v>276</v>
       </c>
+      <c r="F78" t="s">
+        <v>589</v>
+      </c>
       <c r="G78" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3499,11 +3759,14 @@
       <c r="D79" t="s">
         <v>277</v>
       </c>
+      <c r="F79" t="s">
+        <v>589</v>
+      </c>
       <c r="G79" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>82</v>
       </c>
@@ -3516,11 +3779,14 @@
       <c r="D80" t="s">
         <v>278</v>
       </c>
+      <c r="F80" t="s">
+        <v>589</v>
+      </c>
       <c r="G80" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3533,11 +3799,14 @@
       <c r="D81" t="s">
         <v>279</v>
       </c>
+      <c r="F81" t="s">
+        <v>588</v>
+      </c>
       <c r="G81" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3550,11 +3819,14 @@
       <c r="D82" t="s">
         <v>280</v>
       </c>
+      <c r="F82" t="s">
+        <v>588</v>
+      </c>
       <c r="G82" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>77</v>
       </c>
@@ -3567,11 +3839,14 @@
       <c r="D83" t="s">
         <v>281</v>
       </c>
+      <c r="F83" t="s">
+        <v>588</v>
+      </c>
       <c r="G83" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3584,11 +3859,14 @@
       <c r="D84" t="s">
         <v>282</v>
       </c>
+      <c r="F84" t="s">
+        <v>589</v>
+      </c>
       <c r="G84" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3601,11 +3879,14 @@
       <c r="D85" t="s">
         <v>283</v>
       </c>
+      <c r="F85" t="s">
+        <v>589</v>
+      </c>
       <c r="G85" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3618,11 +3899,14 @@
       <c r="D86" t="s">
         <v>284</v>
       </c>
+      <c r="F86" t="s">
+        <v>588</v>
+      </c>
       <c r="G86" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -3635,11 +3919,14 @@
       <c r="D87" t="s">
         <v>285</v>
       </c>
+      <c r="F87" t="s">
+        <v>588</v>
+      </c>
       <c r="G87" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3652,11 +3939,14 @@
       <c r="D88" t="s">
         <v>286</v>
       </c>
+      <c r="F88" t="s">
+        <v>589</v>
+      </c>
       <c r="G88" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3669,11 +3959,14 @@
       <c r="D89" t="s">
         <v>287</v>
       </c>
+      <c r="F89" t="s">
+        <v>589</v>
+      </c>
       <c r="G89" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3686,11 +3979,14 @@
       <c r="D90" t="s">
         <v>288</v>
       </c>
+      <c r="F90" t="s">
+        <v>588</v>
+      </c>
       <c r="G90" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>94</v>
       </c>
@@ -3703,11 +3999,14 @@
       <c r="D91" t="s">
         <v>289</v>
       </c>
+      <c r="F91" t="s">
+        <v>588</v>
+      </c>
       <c r="G91" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>31</v>
       </c>
@@ -3720,11 +4019,14 @@
       <c r="D92" t="s">
         <v>290</v>
       </c>
+      <c r="F92" t="s">
+        <v>588</v>
+      </c>
       <c r="G92" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>90</v>
       </c>
@@ -3737,11 +4039,14 @@
       <c r="D93" t="s">
         <v>291</v>
       </c>
+      <c r="F93" t="s">
+        <v>588</v>
+      </c>
       <c r="G93" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>146</v>
       </c>
@@ -3754,11 +4059,14 @@
       <c r="D94" t="s">
         <v>292</v>
       </c>
+      <c r="F94" t="s">
+        <v>588</v>
+      </c>
       <c r="G94" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -3771,11 +4079,14 @@
       <c r="D95" t="s">
         <v>293</v>
       </c>
+      <c r="F95" t="s">
+        <v>589</v>
+      </c>
       <c r="G95" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>93</v>
       </c>
@@ -3788,11 +4099,14 @@
       <c r="D96" t="s">
         <v>294</v>
       </c>
+      <c r="F96" t="s">
+        <v>588</v>
+      </c>
       <c r="G96" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3805,11 +4119,14 @@
       <c r="D97" t="s">
         <v>295</v>
       </c>
+      <c r="F97" t="s">
+        <v>588</v>
+      </c>
       <c r="G97" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3822,11 +4139,14 @@
       <c r="D98" t="s">
         <v>296</v>
       </c>
+      <c r="F98" t="s">
+        <v>588</v>
+      </c>
       <c r="G98" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -3839,11 +4159,14 @@
       <c r="D99" t="s">
         <v>297</v>
       </c>
+      <c r="F99" t="s">
+        <v>588</v>
+      </c>
       <c r="G99" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -3856,11 +4179,14 @@
       <c r="D100" t="s">
         <v>298</v>
       </c>
+      <c r="F100" t="s">
+        <v>588</v>
+      </c>
       <c r="G100" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>147</v>
       </c>
@@ -3873,11 +4199,14 @@
       <c r="D101" t="s">
         <v>299</v>
       </c>
+      <c r="F101" t="s">
+        <v>588</v>
+      </c>
       <c r="G101" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>164</v>
       </c>
@@ -3890,11 +4219,14 @@
       <c r="D102" t="s">
         <v>300</v>
       </c>
+      <c r="F102" t="s">
+        <v>588</v>
+      </c>
       <c r="G102" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>98</v>
       </c>
@@ -3907,11 +4239,14 @@
       <c r="D103" t="s">
         <v>301</v>
       </c>
+      <c r="F103" t="s">
+        <v>588</v>
+      </c>
       <c r="G103" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>101</v>
       </c>
@@ -3924,11 +4259,14 @@
       <c r="D104" t="s">
         <v>302</v>
       </c>
+      <c r="F104" t="s">
+        <v>589</v>
+      </c>
       <c r="G104" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>102</v>
       </c>
@@ -3941,11 +4279,14 @@
       <c r="D105" t="s">
         <v>303</v>
       </c>
+      <c r="F105" t="s">
+        <v>588</v>
+      </c>
       <c r="G105" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>96</v>
       </c>
@@ -3958,11 +4299,14 @@
       <c r="D106" t="s">
         <v>304</v>
       </c>
+      <c r="F106" t="s">
+        <v>589</v>
+      </c>
       <c r="G106" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>103</v>
       </c>
@@ -3975,11 +4319,14 @@
       <c r="D107" t="s">
         <v>305</v>
       </c>
+      <c r="F107" t="s">
+        <v>588</v>
+      </c>
       <c r="G107" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>118</v>
       </c>
@@ -3992,11 +4339,14 @@
       <c r="D108" t="s">
         <v>306</v>
       </c>
+      <c r="F108" t="s">
+        <v>589</v>
+      </c>
       <c r="G108" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>115</v>
       </c>
@@ -4009,11 +4359,14 @@
       <c r="D109" t="s">
         <v>307</v>
       </c>
+      <c r="F109" t="s">
+        <v>588</v>
+      </c>
       <c r="G109" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>104</v>
       </c>
@@ -4026,11 +4379,14 @@
       <c r="D110" t="s">
         <v>308</v>
       </c>
+      <c r="F110" t="s">
+        <v>588</v>
+      </c>
       <c r="G110" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>107</v>
       </c>
@@ -4043,11 +4399,14 @@
       <c r="D111" t="s">
         <v>309</v>
       </c>
+      <c r="F111" t="s">
+        <v>588</v>
+      </c>
       <c r="G111" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>113</v>
       </c>
@@ -4060,11 +4419,14 @@
       <c r="D112" t="s">
         <v>310</v>
       </c>
+      <c r="F112" t="s">
+        <v>589</v>
+      </c>
       <c r="G112" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>110</v>
       </c>
@@ -4077,11 +4439,14 @@
       <c r="D113" t="s">
         <v>311</v>
       </c>
+      <c r="F113" t="s">
+        <v>588</v>
+      </c>
       <c r="G113" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>129</v>
       </c>
@@ -4094,11 +4459,14 @@
       <c r="D114" t="s">
         <v>312</v>
       </c>
+      <c r="F114" t="s">
+        <v>588</v>
+      </c>
       <c r="G114" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>108</v>
       </c>
@@ -4111,11 +4479,14 @@
       <c r="D115" t="s">
         <v>313</v>
       </c>
+      <c r="F115" t="s">
+        <v>588</v>
+      </c>
       <c r="G115" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>109</v>
       </c>
@@ -4128,11 +4499,14 @@
       <c r="D116" t="s">
         <v>314</v>
       </c>
+      <c r="F116" t="s">
+        <v>588</v>
+      </c>
       <c r="G116" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>120</v>
       </c>
@@ -4145,11 +4519,14 @@
       <c r="D117" t="s">
         <v>315</v>
       </c>
+      <c r="F117" t="s">
+        <v>588</v>
+      </c>
       <c r="G117" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -4162,11 +4539,14 @@
       <c r="D118" t="s">
         <v>316</v>
       </c>
+      <c r="F118" t="s">
+        <v>588</v>
+      </c>
       <c r="G118" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>116</v>
       </c>
@@ -4179,11 +4559,14 @@
       <c r="D119" t="s">
         <v>317</v>
       </c>
+      <c r="F119" t="s">
+        <v>588</v>
+      </c>
       <c r="G119" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -4196,11 +4579,14 @@
       <c r="D120" t="s">
         <v>318</v>
       </c>
+      <c r="F120" t="s">
+        <v>588</v>
+      </c>
       <c r="G120" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>111</v>
       </c>
@@ -4213,11 +4599,14 @@
       <c r="D121" t="s">
         <v>319</v>
       </c>
+      <c r="F121" t="s">
+        <v>588</v>
+      </c>
       <c r="G121" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>112</v>
       </c>
@@ -4230,11 +4619,14 @@
       <c r="D122" t="s">
         <v>320</v>
       </c>
+      <c r="F122" t="s">
+        <v>588</v>
+      </c>
       <c r="G122" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>105</v>
       </c>
@@ -4247,11 +4639,14 @@
       <c r="D123" t="s">
         <v>321</v>
       </c>
+      <c r="F123" t="s">
+        <v>588</v>
+      </c>
       <c r="G123" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>106</v>
       </c>
@@ -4264,11 +4659,14 @@
       <c r="D124" t="s">
         <v>322</v>
       </c>
+      <c r="F124" t="s">
+        <v>589</v>
+      </c>
       <c r="G124" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>121</v>
       </c>
@@ -4281,11 +4679,14 @@
       <c r="D125" t="s">
         <v>323</v>
       </c>
+      <c r="F125" t="s">
+        <v>588</v>
+      </c>
       <c r="G125" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>127</v>
       </c>
@@ -4298,11 +4699,14 @@
       <c r="D126" t="s">
         <v>324</v>
       </c>
+      <c r="F126" t="s">
+        <v>588</v>
+      </c>
       <c r="G126" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>128</v>
       </c>
@@ -4315,11 +4719,14 @@
       <c r="D127" t="s">
         <v>325</v>
       </c>
+      <c r="F127" t="s">
+        <v>589</v>
+      </c>
       <c r="G127" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4332,11 +4739,14 @@
       <c r="D128" t="s">
         <v>326</v>
       </c>
+      <c r="F128" t="s">
+        <v>588</v>
+      </c>
       <c r="G128" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>124</v>
       </c>
@@ -4349,11 +4759,14 @@
       <c r="D129" t="s">
         <v>327</v>
       </c>
+      <c r="F129" t="s">
+        <v>589</v>
+      </c>
       <c r="G129" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -4366,11 +4779,14 @@
       <c r="D130" t="s">
         <v>328</v>
       </c>
+      <c r="F130" t="s">
+        <v>589</v>
+      </c>
       <c r="G130" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>123</v>
       </c>
@@ -4383,11 +4799,14 @@
       <c r="D131" t="s">
         <v>329</v>
       </c>
+      <c r="F131" t="s">
+        <v>588</v>
+      </c>
       <c r="G131" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>122</v>
       </c>
@@ -4400,11 +4819,14 @@
       <c r="D132" t="s">
         <v>330</v>
       </c>
+      <c r="F132" t="s">
+        <v>588</v>
+      </c>
       <c r="G132" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>125</v>
       </c>
@@ -4417,11 +4839,14 @@
       <c r="D133" t="s">
         <v>331</v>
       </c>
+      <c r="F133" t="s">
+        <v>588</v>
+      </c>
       <c r="G133" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>131</v>
       </c>
@@ -4434,11 +4859,14 @@
       <c r="D134" t="s">
         <v>332</v>
       </c>
+      <c r="F134" t="s">
+        <v>588</v>
+      </c>
       <c r="G134" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>132</v>
       </c>
@@ -4451,11 +4879,14 @@
       <c r="D135" t="s">
         <v>333</v>
       </c>
+      <c r="F135" t="s">
+        <v>588</v>
+      </c>
       <c r="G135" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4468,11 +4899,14 @@
       <c r="D136" t="s">
         <v>334</v>
       </c>
+      <c r="F136" t="s">
+        <v>588</v>
+      </c>
       <c r="G136" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -4485,11 +4919,14 @@
       <c r="D137" t="s">
         <v>335</v>
       </c>
+      <c r="F137" t="s">
+        <v>588</v>
+      </c>
       <c r="G137" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -4502,11 +4939,14 @@
       <c r="D138" t="s">
         <v>336</v>
       </c>
+      <c r="F138" t="s">
+        <v>589</v>
+      </c>
       <c r="G138" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>133</v>
       </c>
@@ -4519,11 +4959,14 @@
       <c r="D139" t="s">
         <v>337</v>
       </c>
+      <c r="F139" t="s">
+        <v>588</v>
+      </c>
       <c r="G139" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>135</v>
       </c>
@@ -4536,11 +4979,14 @@
       <c r="D140" t="s">
         <v>338</v>
       </c>
+      <c r="F140" t="s">
+        <v>588</v>
+      </c>
       <c r="G140" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4553,11 +4999,14 @@
       <c r="D141" t="s">
         <v>339</v>
       </c>
+      <c r="F141" t="s">
+        <v>589</v>
+      </c>
       <c r="G141" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4570,11 +5019,14 @@
       <c r="D142" t="s">
         <v>340</v>
       </c>
+      <c r="F142" t="s">
+        <v>588</v>
+      </c>
       <c r="G142" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>140</v>
       </c>
@@ -4587,11 +5039,14 @@
       <c r="D143" t="s">
         <v>341</v>
       </c>
+      <c r="F143" t="s">
+        <v>589</v>
+      </c>
       <c r="G143" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>136</v>
       </c>
@@ -4604,11 +5059,14 @@
       <c r="D144" t="s">
         <v>342</v>
       </c>
+      <c r="F144" t="s">
+        <v>588</v>
+      </c>
       <c r="G144" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>193</v>
       </c>
@@ -4622,13 +5080,13 @@
         <v>343</v>
       </c>
       <c r="F145" t="s">
-        <v>394</v>
+        <v>588</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>142</v>
       </c>
@@ -4641,11 +5099,14 @@
       <c r="D146" t="s">
         <v>344</v>
       </c>
+      <c r="F146" t="s">
+        <v>588</v>
+      </c>
       <c r="G146" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>143</v>
       </c>
@@ -4658,11 +5119,14 @@
       <c r="D147" t="s">
         <v>345</v>
       </c>
+      <c r="F147" t="s">
+        <v>589</v>
+      </c>
       <c r="G147" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>144</v>
       </c>
@@ -4675,11 +5139,14 @@
       <c r="D148" t="s">
         <v>346</v>
       </c>
+      <c r="F148" t="s">
+        <v>588</v>
+      </c>
       <c r="G148" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>145</v>
       </c>
@@ -4692,11 +5159,14 @@
       <c r="D149" t="s">
         <v>347</v>
       </c>
+      <c r="F149" t="s">
+        <v>588</v>
+      </c>
       <c r="G149" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>151</v>
       </c>
@@ -4709,11 +5179,14 @@
       <c r="D150" t="s">
         <v>348</v>
       </c>
+      <c r="F150" t="s">
+        <v>589</v>
+      </c>
       <c r="G150" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>165</v>
       </c>
@@ -4726,11 +5199,14 @@
       <c r="D151" t="s">
         <v>349</v>
       </c>
+      <c r="F151" t="s">
+        <v>588</v>
+      </c>
       <c r="G151" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -4743,11 +5219,14 @@
       <c r="D152" t="s">
         <v>350</v>
       </c>
+      <c r="F152" t="s">
+        <v>588</v>
+      </c>
       <c r="G152" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>156</v>
       </c>
@@ -4760,11 +5239,14 @@
       <c r="D153" t="s">
         <v>351</v>
       </c>
+      <c r="F153" t="s">
+        <v>589</v>
+      </c>
       <c r="G153" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>159</v>
       </c>
@@ -4777,11 +5259,14 @@
       <c r="D154" t="s">
         <v>352</v>
       </c>
+      <c r="F154" t="s">
+        <v>588</v>
+      </c>
       <c r="G154" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -4794,11 +5279,14 @@
       <c r="D155" t="s">
         <v>353</v>
       </c>
+      <c r="F155" t="s">
+        <v>588</v>
+      </c>
       <c r="G155" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>53</v>
       </c>
@@ -4811,11 +5299,14 @@
       <c r="D156" t="s">
         <v>354</v>
       </c>
+      <c r="F156" t="s">
+        <v>588</v>
+      </c>
       <c r="G156" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>150</v>
       </c>
@@ -4828,11 +5319,14 @@
       <c r="D157" t="s">
         <v>355</v>
       </c>
+      <c r="F157" t="s">
+        <v>588</v>
+      </c>
       <c r="G157" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>160</v>
       </c>
@@ -4845,11 +5339,14 @@
       <c r="D158" t="s">
         <v>356</v>
       </c>
+      <c r="F158" t="s">
+        <v>588</v>
+      </c>
       <c r="G158" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>153</v>
       </c>
@@ -4862,11 +5359,14 @@
       <c r="D159" t="s">
         <v>357</v>
       </c>
+      <c r="F159" t="s">
+        <v>589</v>
+      </c>
       <c r="G159" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>162</v>
       </c>
@@ -4879,11 +5379,14 @@
       <c r="D160" t="s">
         <v>358</v>
       </c>
+      <c r="F160" t="s">
+        <v>588</v>
+      </c>
       <c r="G160" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>170</v>
       </c>
@@ -4896,11 +5399,14 @@
       <c r="D161" t="s">
         <v>359</v>
       </c>
+      <c r="F161" t="s">
+        <v>588</v>
+      </c>
       <c r="G161" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>166</v>
       </c>
@@ -4913,11 +5419,14 @@
       <c r="D162" t="s">
         <v>360</v>
       </c>
+      <c r="F162" t="s">
+        <v>588</v>
+      </c>
       <c r="G162" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>157</v>
       </c>
@@ -4930,11 +5439,14 @@
       <c r="D163" t="s">
         <v>361</v>
       </c>
+      <c r="F163" t="s">
+        <v>588</v>
+      </c>
       <c r="G163" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>158</v>
       </c>
@@ -4947,11 +5459,14 @@
       <c r="D164" t="s">
         <v>362</v>
       </c>
+      <c r="F164" t="s">
+        <v>589</v>
+      </c>
       <c r="G164" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>167</v>
       </c>
@@ -4964,11 +5479,14 @@
       <c r="D165" t="s">
         <v>363</v>
       </c>
+      <c r="F165" t="s">
+        <v>589</v>
+      </c>
       <c r="G165" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>57</v>
       </c>
@@ -4981,11 +5499,14 @@
       <c r="D166" t="s">
         <v>364</v>
       </c>
+      <c r="F166" t="s">
+        <v>588</v>
+      </c>
       <c r="G166" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>154</v>
       </c>
@@ -4998,11 +5519,14 @@
       <c r="D167" t="s">
         <v>365</v>
       </c>
+      <c r="F167" t="s">
+        <v>588</v>
+      </c>
       <c r="G167" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>169</v>
       </c>
@@ -5015,11 +5539,14 @@
       <c r="D168" t="s">
         <v>366</v>
       </c>
+      <c r="F168" t="s">
+        <v>588</v>
+      </c>
       <c r="G168" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>35</v>
       </c>
@@ -5032,11 +5559,14 @@
       <c r="D169" t="s">
         <v>367</v>
       </c>
+      <c r="F169" t="s">
+        <v>588</v>
+      </c>
       <c r="G169" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>176</v>
       </c>
@@ -5049,11 +5579,14 @@
       <c r="D170" t="s">
         <v>368</v>
       </c>
+      <c r="F170" t="s">
+        <v>588</v>
+      </c>
       <c r="G170" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>174</v>
       </c>
@@ -5066,11 +5599,14 @@
       <c r="D171" t="s">
         <v>369</v>
       </c>
+      <c r="F171" t="s">
+        <v>589</v>
+      </c>
       <c r="G171" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -5083,11 +5619,14 @@
       <c r="D172" t="s">
         <v>370</v>
       </c>
+      <c r="F172" t="s">
+        <v>588</v>
+      </c>
       <c r="G172" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>180</v>
       </c>
@@ -5100,11 +5639,14 @@
       <c r="D173" t="s">
         <v>371</v>
       </c>
+      <c r="F173" t="s">
+        <v>588</v>
+      </c>
       <c r="G173" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>175</v>
       </c>
@@ -5117,11 +5659,14 @@
       <c r="D174" t="s">
         <v>372</v>
       </c>
+      <c r="F174" t="s">
+        <v>588</v>
+      </c>
       <c r="G174" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>177</v>
       </c>
@@ -5134,11 +5679,14 @@
       <c r="D175" t="s">
         <v>373</v>
       </c>
+      <c r="F175" t="s">
+        <v>588</v>
+      </c>
       <c r="G175" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>178</v>
       </c>
@@ -5151,11 +5699,14 @@
       <c r="D176" t="s">
         <v>374</v>
       </c>
+      <c r="F176" t="s">
+        <v>588</v>
+      </c>
       <c r="G176" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>179</v>
       </c>
@@ -5168,11 +5719,14 @@
       <c r="D177" t="s">
         <v>375</v>
       </c>
+      <c r="F177" t="s">
+        <v>589</v>
+      </c>
       <c r="G177" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>182</v>
       </c>
@@ -5185,11 +5739,14 @@
       <c r="D178" t="s">
         <v>376</v>
       </c>
+      <c r="F178" t="s">
+        <v>589</v>
+      </c>
       <c r="G178" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>181</v>
       </c>
@@ -5202,11 +5759,14 @@
       <c r="D179" t="s">
         <v>377</v>
       </c>
+      <c r="F179" t="s">
+        <v>588</v>
+      </c>
       <c r="G179" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>171</v>
       </c>
@@ -5219,11 +5779,14 @@
       <c r="D180" t="s">
         <v>378</v>
       </c>
+      <c r="F180" t="s">
+        <v>588</v>
+      </c>
       <c r="G180" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>173</v>
       </c>
@@ -5236,11 +5799,14 @@
       <c r="D181" t="s">
         <v>379</v>
       </c>
+      <c r="F181" t="s">
+        <v>588</v>
+      </c>
       <c r="G181" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>183</v>
       </c>
@@ -5253,11 +5819,14 @@
       <c r="D182" t="s">
         <v>380</v>
       </c>
+      <c r="F182" t="s">
+        <v>588</v>
+      </c>
       <c r="G182" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>184</v>
       </c>
@@ -5270,11 +5839,14 @@
       <c r="D183" t="s">
         <v>381</v>
       </c>
+      <c r="F183" t="s">
+        <v>588</v>
+      </c>
       <c r="G183" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>188</v>
       </c>
@@ -5287,11 +5859,14 @@
       <c r="D184" t="s">
         <v>382</v>
       </c>
+      <c r="F184" t="s">
+        <v>588</v>
+      </c>
       <c r="G184" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>187</v>
       </c>
@@ -5304,11 +5879,14 @@
       <c r="D185" t="s">
         <v>383</v>
       </c>
+      <c r="F185" t="s">
+        <v>589</v>
+      </c>
       <c r="G185" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>189</v>
       </c>
@@ -5321,11 +5899,14 @@
       <c r="D186" t="s">
         <v>384</v>
       </c>
+      <c r="F186" t="s">
+        <v>589</v>
+      </c>
       <c r="G186" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>148</v>
       </c>
@@ -5338,11 +5919,14 @@
       <c r="D187" t="s">
         <v>385</v>
       </c>
+      <c r="F187" t="s">
+        <v>588</v>
+      </c>
       <c r="G187" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>191</v>
       </c>
@@ -5355,11 +5939,14 @@
       <c r="D188" t="s">
         <v>386</v>
       </c>
+      <c r="F188" t="s">
+        <v>588</v>
+      </c>
       <c r="G188" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>192</v>
       </c>
@@ -5372,11 +5959,14 @@
       <c r="D189" t="s">
         <v>387</v>
       </c>
+      <c r="F189" t="s">
+        <v>589</v>
+      </c>
       <c r="G189" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>190</v>
       </c>
@@ -5389,11 +5979,14 @@
       <c r="D190" t="s">
         <v>388</v>
       </c>
+      <c r="F190" t="s">
+        <v>588</v>
+      </c>
       <c r="G190" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>149</v>
       </c>
@@ -5406,11 +5999,14 @@
       <c r="D191" t="s">
         <v>389</v>
       </c>
+      <c r="F191" t="s">
+        <v>588</v>
+      </c>
       <c r="G191" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>194</v>
       </c>
@@ -5423,11 +6019,14 @@
       <c r="D192" t="s">
         <v>390</v>
       </c>
+      <c r="F192" t="s">
+        <v>588</v>
+      </c>
       <c r="G192" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>161</v>
       </c>
@@ -5440,11 +6039,14 @@
       <c r="D193" t="s">
         <v>391</v>
       </c>
+      <c r="F193" t="s">
+        <v>589</v>
+      </c>
       <c r="G193" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>195</v>
       </c>
@@ -5457,11 +6059,14 @@
       <c r="D194" t="s">
         <v>392</v>
       </c>
+      <c r="F194" t="s">
+        <v>588</v>
+      </c>
       <c r="G194" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>196</v>
       </c>
@@ -5474,206 +6079,216 @@
       <c r="D195" t="s">
         <v>393</v>
       </c>
+      <c r="F195" t="s">
+        <v>589</v>
+      </c>
       <c r="G195" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <f>COUNTIF(F2:F195, "Var")</f>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F196" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G9" r:id="rId8"/>
-    <hyperlink ref="G10" r:id="rId9"/>
-    <hyperlink ref="G11" r:id="rId10"/>
-    <hyperlink ref="G12" r:id="rId11"/>
-    <hyperlink ref="G13" r:id="rId12"/>
-    <hyperlink ref="G14" r:id="rId13"/>
-    <hyperlink ref="G15" r:id="rId14"/>
-    <hyperlink ref="G16" r:id="rId15"/>
-    <hyperlink ref="G17" r:id="rId16"/>
-    <hyperlink ref="G18" r:id="rId17"/>
-    <hyperlink ref="G19" r:id="rId18"/>
-    <hyperlink ref="G20" r:id="rId19"/>
-    <hyperlink ref="G21" r:id="rId20"/>
-    <hyperlink ref="G22" r:id="rId21"/>
-    <hyperlink ref="G23" r:id="rId22"/>
-    <hyperlink ref="G24" r:id="rId23"/>
-    <hyperlink ref="G25" r:id="rId24"/>
-    <hyperlink ref="G26" r:id="rId25"/>
-    <hyperlink ref="G27" r:id="rId26"/>
-    <hyperlink ref="G28" r:id="rId27"/>
-    <hyperlink ref="G29" r:id="rId28"/>
-    <hyperlink ref="G30" r:id="rId29"/>
-    <hyperlink ref="G31" r:id="rId30"/>
-    <hyperlink ref="G32" r:id="rId31"/>
-    <hyperlink ref="G33" r:id="rId32"/>
-    <hyperlink ref="G34" r:id="rId33"/>
-    <hyperlink ref="G35" r:id="rId34"/>
-    <hyperlink ref="G36" r:id="rId35"/>
-    <hyperlink ref="G37" r:id="rId36"/>
-    <hyperlink ref="G38" r:id="rId37"/>
-    <hyperlink ref="G39" r:id="rId38"/>
-    <hyperlink ref="G40" r:id="rId39"/>
-    <hyperlink ref="G41" r:id="rId40"/>
-    <hyperlink ref="G42" r:id="rId41"/>
-    <hyperlink ref="G43" r:id="rId42"/>
-    <hyperlink ref="G44" r:id="rId43"/>
-    <hyperlink ref="G45" r:id="rId44"/>
-    <hyperlink ref="G46" r:id="rId45"/>
-    <hyperlink ref="G47" r:id="rId46"/>
-    <hyperlink ref="G48" r:id="rId47"/>
-    <hyperlink ref="G49" r:id="rId48"/>
-    <hyperlink ref="G50" r:id="rId49"/>
-    <hyperlink ref="G51" r:id="rId50"/>
-    <hyperlink ref="G52" r:id="rId51"/>
-    <hyperlink ref="G53" r:id="rId52"/>
-    <hyperlink ref="G54" r:id="rId53"/>
-    <hyperlink ref="G55" r:id="rId54"/>
-    <hyperlink ref="G56" r:id="rId55"/>
-    <hyperlink ref="G57" r:id="rId56"/>
-    <hyperlink ref="G58" r:id="rId57"/>
-    <hyperlink ref="G59" r:id="rId58"/>
-    <hyperlink ref="G60" r:id="rId59"/>
-    <hyperlink ref="G61" r:id="rId60"/>
-    <hyperlink ref="G62" r:id="rId61"/>
-    <hyperlink ref="G63" r:id="rId62"/>
-    <hyperlink ref="G64" r:id="rId63"/>
-    <hyperlink ref="G65" r:id="rId64"/>
-    <hyperlink ref="G66" r:id="rId65"/>
-    <hyperlink ref="G67" r:id="rId66"/>
-    <hyperlink ref="G68" r:id="rId67"/>
-    <hyperlink ref="G69" r:id="rId68"/>
-    <hyperlink ref="G70" r:id="rId69"/>
-    <hyperlink ref="G71" r:id="rId70"/>
-    <hyperlink ref="G72" r:id="rId71"/>
-    <hyperlink ref="G73" r:id="rId72"/>
-    <hyperlink ref="G74" r:id="rId73"/>
-    <hyperlink ref="G75" r:id="rId74"/>
-    <hyperlink ref="G76" r:id="rId75"/>
-    <hyperlink ref="G77" r:id="rId76"/>
-    <hyperlink ref="G78" r:id="rId77"/>
-    <hyperlink ref="G79" r:id="rId78"/>
-    <hyperlink ref="G80" r:id="rId79"/>
-    <hyperlink ref="G81" r:id="rId80"/>
-    <hyperlink ref="G82" r:id="rId81"/>
-    <hyperlink ref="G83" r:id="rId82"/>
-    <hyperlink ref="G84" r:id="rId83"/>
-    <hyperlink ref="G85" r:id="rId84"/>
-    <hyperlink ref="G86" r:id="rId85"/>
-    <hyperlink ref="G87" r:id="rId86"/>
-    <hyperlink ref="G88" r:id="rId87"/>
-    <hyperlink ref="G89" r:id="rId88"/>
-    <hyperlink ref="G90" r:id="rId89"/>
-    <hyperlink ref="G91" r:id="rId90"/>
-    <hyperlink ref="G92" r:id="rId91"/>
-    <hyperlink ref="G93" r:id="rId92"/>
-    <hyperlink ref="G94" r:id="rId93"/>
-    <hyperlink ref="G95" r:id="rId94"/>
-    <hyperlink ref="G96" r:id="rId95"/>
-    <hyperlink ref="G97" r:id="rId96"/>
-    <hyperlink ref="G98" r:id="rId97"/>
-    <hyperlink ref="G99" r:id="rId98"/>
-    <hyperlink ref="G100" r:id="rId99"/>
-    <hyperlink ref="G101" r:id="rId100"/>
-    <hyperlink ref="G102" r:id="rId101"/>
-    <hyperlink ref="G103" r:id="rId102"/>
-    <hyperlink ref="G104" r:id="rId103"/>
-    <hyperlink ref="G105" r:id="rId104"/>
-    <hyperlink ref="G106" r:id="rId105"/>
-    <hyperlink ref="G107" r:id="rId106"/>
-    <hyperlink ref="G108" r:id="rId107"/>
-    <hyperlink ref="G109" r:id="rId108"/>
-    <hyperlink ref="G110" r:id="rId109"/>
-    <hyperlink ref="G111" r:id="rId110"/>
-    <hyperlink ref="G112" r:id="rId111"/>
-    <hyperlink ref="G113" r:id="rId112"/>
-    <hyperlink ref="G114" r:id="rId113"/>
-    <hyperlink ref="G115" r:id="rId114"/>
-    <hyperlink ref="G116" r:id="rId115"/>
-    <hyperlink ref="G117" r:id="rId116"/>
-    <hyperlink ref="G118" r:id="rId117"/>
-    <hyperlink ref="G119" r:id="rId118"/>
-    <hyperlink ref="G120" r:id="rId119"/>
-    <hyperlink ref="G121" r:id="rId120"/>
-    <hyperlink ref="G122" r:id="rId121"/>
-    <hyperlink ref="G123" r:id="rId122"/>
-    <hyperlink ref="G124" r:id="rId123"/>
-    <hyperlink ref="G125" r:id="rId124"/>
-    <hyperlink ref="G126" r:id="rId125"/>
-    <hyperlink ref="G127" r:id="rId126"/>
-    <hyperlink ref="G128" r:id="rId127"/>
-    <hyperlink ref="G129" r:id="rId128"/>
-    <hyperlink ref="G130" r:id="rId129"/>
-    <hyperlink ref="G131" r:id="rId130"/>
-    <hyperlink ref="G132" r:id="rId131"/>
-    <hyperlink ref="G133" r:id="rId132"/>
-    <hyperlink ref="G134" r:id="rId133"/>
-    <hyperlink ref="G135" r:id="rId134"/>
-    <hyperlink ref="G136" r:id="rId135"/>
-    <hyperlink ref="G137" r:id="rId136"/>
-    <hyperlink ref="G138" r:id="rId137"/>
-    <hyperlink ref="G139" r:id="rId138"/>
-    <hyperlink ref="G140" r:id="rId139"/>
-    <hyperlink ref="G141" r:id="rId140"/>
-    <hyperlink ref="G142" r:id="rId141"/>
-    <hyperlink ref="G143" r:id="rId142"/>
-    <hyperlink ref="G144" r:id="rId143"/>
-    <hyperlink ref="G145" r:id="rId144"/>
-    <hyperlink ref="G146" r:id="rId145"/>
-    <hyperlink ref="G147" r:id="rId146"/>
-    <hyperlink ref="G148" r:id="rId147"/>
-    <hyperlink ref="G149" r:id="rId148"/>
-    <hyperlink ref="G150" r:id="rId149"/>
-    <hyperlink ref="G151" r:id="rId150"/>
-    <hyperlink ref="G152" r:id="rId151"/>
-    <hyperlink ref="G153" r:id="rId152"/>
-    <hyperlink ref="G154" r:id="rId153"/>
-    <hyperlink ref="G155" r:id="rId154"/>
-    <hyperlink ref="G156" r:id="rId155"/>
-    <hyperlink ref="G157" r:id="rId156"/>
-    <hyperlink ref="G158" r:id="rId157"/>
-    <hyperlink ref="G159" r:id="rId158"/>
-    <hyperlink ref="G160" r:id="rId159"/>
-    <hyperlink ref="G161" r:id="rId160"/>
-    <hyperlink ref="G162" r:id="rId161"/>
-    <hyperlink ref="G163" r:id="rId162"/>
-    <hyperlink ref="G164" r:id="rId163"/>
-    <hyperlink ref="G165" r:id="rId164"/>
-    <hyperlink ref="G166" r:id="rId165"/>
-    <hyperlink ref="G167" r:id="rId166"/>
-    <hyperlink ref="G168" r:id="rId167"/>
-    <hyperlink ref="G169" r:id="rId168"/>
-    <hyperlink ref="G170" r:id="rId169"/>
-    <hyperlink ref="G171" r:id="rId170"/>
-    <hyperlink ref="G172" r:id="rId171"/>
-    <hyperlink ref="G173" r:id="rId172"/>
-    <hyperlink ref="G174" r:id="rId173"/>
-    <hyperlink ref="G175" r:id="rId174"/>
-    <hyperlink ref="G176" r:id="rId175"/>
-    <hyperlink ref="G177" r:id="rId176"/>
-    <hyperlink ref="G178" r:id="rId177"/>
-    <hyperlink ref="G179" r:id="rId178"/>
-    <hyperlink ref="G180" r:id="rId179"/>
-    <hyperlink ref="G181" r:id="rId180"/>
-    <hyperlink ref="G182" r:id="rId181"/>
-    <hyperlink ref="G183" r:id="rId182"/>
-    <hyperlink ref="G184" r:id="rId183"/>
-    <hyperlink ref="G185" r:id="rId184"/>
-    <hyperlink ref="G186" r:id="rId185"/>
-    <hyperlink ref="G187" r:id="rId186"/>
-    <hyperlink ref="G188" r:id="rId187"/>
-    <hyperlink ref="G189" r:id="rId188"/>
-    <hyperlink ref="G190" r:id="rId189"/>
-    <hyperlink ref="G191" r:id="rId190"/>
-    <hyperlink ref="G192" r:id="rId191"/>
-    <hyperlink ref="G193" r:id="rId192"/>
-    <hyperlink ref="G194" r:id="rId193"/>
-    <hyperlink ref="G195" r:id="rId194"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="G80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="G85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="G88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="G91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="G93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="G95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="G96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="G97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="G98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="G99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="G100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="G101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="G102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="G103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="G104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="G106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="G107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="G108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="G109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="G110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="G111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="G112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="G113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="G115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="G116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="G117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="G118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="G119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="G120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="G121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="G123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="G124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="G125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="G127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="G129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="G130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="G131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="G133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="G135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="G136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="G138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="G140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="G142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="G144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="G146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="G147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="G149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="G150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="G151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="G152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="G153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="G155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="G156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="G157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="G158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="G159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="G160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="G161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="G162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="G163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="G165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="G166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="G167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="G169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="G171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="G172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="G173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="G174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="G175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="G176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="G177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="G178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="G179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="G180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="G182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="G183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="G184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="G185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="G186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="G187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="G188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="G189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="G190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="G192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="G193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="G194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="G195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
